--- a/docs/indicators/buurtwinkel.xlsx
+++ b/docs/indicators/buurtwinkel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId2"/>
@@ -417,16 +417,15 @@
   <dimension ref="B2:U65536"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I10" activeCellId="0" sqref="I10"/>
+      <selection pane="topLeft" activeCell="F28" activeCellId="0" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="8.10204081632653"/>
-    <col collapsed="false" hidden="false" max="20" min="4" style="0" width="8.23469387755102"/>
-    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="22.0051020408163"/>
-    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="2" min="1" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="20" min="4" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="21" min="21" style="0" width="21.734693877551"/>
+    <col collapsed="false" hidden="false" max="1025" min="22" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1316,7 +1315,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1342,7 +1341,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.23469387755102"/>
+    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="8.10204081632653"/>
   </cols>
   <sheetData/>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
